--- a/data/Supplementary_File_2_Glickman_et_al.xlsx
+++ b/data/Supplementary_File_2_Glickman_et_al.xlsx
@@ -5,25 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stronglab2/Documents/Strong_Lab/Prophage_In_NTM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stronglab2/Documents/Strong_Lab/Prophage_in_NTM/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8785859-A42F-B144-884B-C7C2668BD2D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB535BD-5BBC-1D48-9DA8-E14DC7DA6EED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31340" yWindow="460" windowWidth="25440" windowHeight="14920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31340" yWindow="460" windowWidth="38640" windowHeight="18360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Predicted_Prophages" sheetId="4" r:id="rId1"/>
     <sheet name="Predicted_Prophage_Edge_Cases" sheetId="3" r:id="rId2"/>
     <sheet name="Bacterial_Genes" sheetId="1" r:id="rId3"/>
-    <sheet name="Cluster_Virulence" sheetId="2" r:id="rId4"/>
+    <sheet name="Virulence_Genes" sheetId="6" r:id="rId4"/>
+    <sheet name="Cluster_Virulence" sheetId="2" r:id="rId5"/>
+    <sheet name="Virulence Gene Origins" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2622" uniqueCount="559">
   <si>
     <t>Prophage</t>
   </si>
@@ -1385,6 +1387,321 @@
   </si>
   <si>
     <t>CF00053-00404-2-1109-47071</t>
+  </si>
+  <si>
+    <t>Host_Species</t>
+  </si>
+  <si>
+    <t>Campylobacter jejuni</t>
+  </si>
+  <si>
+    <t>Haemophilus influenzae</t>
+  </si>
+  <si>
+    <t>Mycobacterium tuberculosis</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Salmonella enterica</t>
+  </si>
+  <si>
+    <t>Shigella flexneri</t>
+  </si>
+  <si>
+    <t>Count of Virulence Genes in Predicted Prophages</t>
+  </si>
+  <si>
+    <t>ID=LOMDJGLK_00071;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|Rv0687;locus_tag=LOMDJGLK_00071;product=Virulent PATRIC_VF|Rv0687 3-ketoacyl-(acyl-carrier-protein) reductase [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>Virulent PATRIC_VF|Rv0687 3-ketoacyl-(acyl-carrier-protein) reductase [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>ID=LOMDJGLK_00077;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|SL1344_0617;locus_tag=LOMDJGLK_00077;product=Virulent PATRIC_VF|SL1344_0617 cold shock-like protein cspE [Salmonella enterica subsp. enterica serovar Typhimurium str.]</t>
+  </si>
+  <si>
+    <t>Virulent PATRIC_VF|SL1344_0617 cold shock-like protein cspE [Salmonella enterica subsp. enterica serovar Typhimurium str.]</t>
+  </si>
+  <si>
+    <t>ID=LOMDJGLK_00080;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|Rv1941;locus_tag=LOMDJGLK_00080;product=Virulent PATRIC_VF|Rv1941 short-chain type dehydrogenase/reductase [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>Virulent PATRIC_VF|Rv1941 short-chain type dehydrogenase/reductase [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>ID=LOMDJGLK_00231;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|Rv3649;locus_tag=LOMDJGLK_00231;product=Virulent PATRIC_VF|Rv3649 helicase [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>Virulent PATRIC_VF|Rv3649 helicase [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>ID=LOMDJGLK_00232;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|SL1344_0617;locus_tag=LOMDJGLK_00232;product=Virulent PATRIC_VF|SL1344_0617 cold shock-like protein cspE [Salmonella enterica subsp. enterica serovar Typhimurium str.]</t>
+  </si>
+  <si>
+    <t>ID=LOMDJGLK_00296;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|Rv0353;locus_tag=LOMDJGLK_00296;product=Virulent PATRIC_VF|Rv0353 HEAT shock protein transcriptional repressor HspR [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>Virulent PATRIC_VF|Rv0353 HEAT shock protein transcriptional repressor HspR [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>ID=LOMDJGLK_00298;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|Rv3003c;locus_tag=LOMDJGLK_00298;product=Virulent PATRIC_VF|Rv3003c acetolactate synthase 1 catalytic subunit [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>Virulent PATRIC_VF|Rv3003c acetolactate synthase 1 catalytic subunit [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>ID=LOMDJGLK_00411;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:VFDB|VFG001965;locus_tag=LOMDJGLK_00411;product=Virulent VFDB|VFG001965 aminotransferase [Campylobacter jejuni subsp. jejuni NCTC]</t>
+  </si>
+  <si>
+    <t>Virulent VFDB|VFG001965 aminotransferase [Campylobacter jejuni subsp. jejuni NCTC]</t>
+  </si>
+  <si>
+    <t>ID=LOMDJGLK_00465;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:SEA_PHROSTEDPHLAKE_39;locus_tag=LOMDJGLK_00465;product=BrnT-like toxin</t>
+  </si>
+  <si>
+    <t>BrnT-like toxin</t>
+  </si>
+  <si>
+    <t>ID=LOMDJGLK_00622;Name=esxE_1;gene=esxE_1;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:UniProtKB:P9WNH8;locus_tag=LOMDJGLK_00622;product=ESAT-6-like protein EsxE</t>
+  </si>
+  <si>
+    <t>ESAT-6-like protein EsxE</t>
+  </si>
+  <si>
+    <t>ID=LOMDJGLK_00755;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|Rv0451c;locus_tag=LOMDJGLK_00755;product=Virulent PATRIC_VF|Rv0451c membrane protein [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>Virulent PATRIC_VF|Rv0451c membrane protein [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>ID=LOMDJGLK_00756;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|Rv0450c;locus_tag=LOMDJGLK_00756;product=Virulent PATRIC_VF|Rv0450c transmembrane transport protein MmpL4 [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>Virulent PATRIC_VF|Rv0450c transmembrane transport protein MmpL4 [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>ID=LOMDJGLK_00762;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|Rv3649;locus_tag=LOMDJGLK_00762;product=Virulent PATRIC_VF|Rv3649 helicase [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>ID=LOMDJGLK_00763;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|SL1344_0617;locus_tag=LOMDJGLK_00763;product=Virulent PATRIC_VF|SL1344_0617 cold shock-like protein cspE [Salmonella enterica subsp. enterica serovar Typhimurium str.]</t>
+  </si>
+  <si>
+    <t>ID=LOMDJGLK_00955;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|Rv0353;locus_tag=LOMDJGLK_00955;product=Virulent PATRIC_VF|Rv0353 HEAT shock protein transcriptional repressor HspR [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>ID=LOMDJGLK_00957;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|Rv3003c;locus_tag=LOMDJGLK_00957;product=Virulent PATRIC_VF|Rv3003c acetolactate synthase 1 catalytic subunit [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>ID=LOMDJGLK_01166;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:SEA_PHROSTEDPHLAKE_39;locus_tag=LOMDJGLK_01166;product=BrnT-like toxin</t>
+  </si>
+  <si>
+    <t>ID=LOMDJGLK_01285;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:SEA_DELIAN_38;locus_tag=LOMDJGLK_01285;product=toxin in toxin/antitoxin system%2C RelE-like</t>
+  </si>
+  <si>
+    <t>toxin in toxin/antitoxin system%2C RelE-like</t>
+  </si>
+  <si>
+    <t>ID=LOMDJGLK_01444;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:SEA_PHROSTEDPHLAKE_39;locus_tag=LOMDJGLK_01444;product=BrnT-like toxin</t>
+  </si>
+  <si>
+    <t>ID=LOMDJGLK_01723;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|Rv0353;locus_tag=LOMDJGLK_01723;product=Virulent PATRIC_VF|Rv0353 HEAT shock protein transcriptional repressor HspR [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>ID=LOMDJGLK_01725;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|Rv3003c;locus_tag=LOMDJGLK_01725;product=Virulent PATRIC_VF|Rv3003c acetolactate synthase 1 catalytic subunit [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>ID=LOMDJGLK_01883;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:SEA_PHROSTEDPHLAKE_39;locus_tag=LOMDJGLK_01883;product=BrnT-like toxin</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_00124;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|Rv3545c;locus_tag=FDIMNEEJ_00124;product=Virulent PATRIC_VF|Rv3545c cytochrome P450 125 [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>Virulent PATRIC_VF|Rv3545c cytochrome P450 125 [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_00287;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|Rv2416c;locus_tag=FDIMNEEJ_00287;product=Virulent PATRIC_VF|Rv2416c hypothetical protein [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>Virulent PATRIC_VF|Rv2416c hypothetical protein [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_00288;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|Rv0202c;locus_tag=FDIMNEEJ_00288;product=Virulent PATRIC_VF|Rv0202c transmembrane transport protein MmpL11 [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>Virulent PATRIC_VF|Rv0202c transmembrane transport protein MmpL11 [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_00290;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|MT2594;locus_tag=FDIMNEEJ_00290;product=Virulent PATRIC_VF|MT2594 hypothetical protein [Mycobacterium tuberculosis]</t>
+  </si>
+  <si>
+    <t>Virulent PATRIC_VF|MT2594 hypothetical protein [Mycobacterium tuberculosis]</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_00721;Name=esxE_1;gene=esxE_1;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:UniProtKB:P9WNH8;locus_tag=FDIMNEEJ_00721;product=ESAT-6-like protein EsxE</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_00816;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|Rv0981;locus_tag=FDIMNEEJ_00816;product=Virulent PATRIC_VF|Rv0981 two component response transcriptional regulatory protein MprA [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>Virulent PATRIC_VF|Rv0981 two component response transcriptional regulatory protein MprA [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_00817;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|Rv0982;locus_tag=FDIMNEEJ_00817;product=Virulent PATRIC_VF|Rv0982 two component sensor kinase MprB [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>Virulent PATRIC_VF|Rv0982 two component sensor kinase MprB [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_00818;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|Rv0983;locus_tag=FDIMNEEJ_00818;product=Virulent PATRIC_VF|Rv0983 serine protease PepD [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>Virulent PATRIC_VF|Rv0983 serine protease PepD [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_00823;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|Rv0990c;locus_tag=FDIMNEEJ_00823;product=Virulent PATRIC_VF|Rv0990c hypothetical protein [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>Virulent PATRIC_VF|Rv0990c hypothetical protein [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_00826;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|S1322;locus_tag=FDIMNEEJ_00826;product=Virulent PATRIC_VF|S1322 UTP--glucose-1-phosphate uridylyltransferase subunit GalU [Shigella flexneri 2a str. 2457T]</t>
+  </si>
+  <si>
+    <t>Virulent PATRIC_VF|S1322 UTP--glucose-1-phosphate uridylyltransferase subunit GalU [Shigella flexneri 2a str. 2457T]</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_01034;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:SEA_DELIAN_38;locus_tag=FDIMNEEJ_01034;product=toxin in toxin/antitoxin system%2C RelE-like</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_01199;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|Rv3003c;locus_tag=FDIMNEEJ_01199;product=Virulent PATRIC_VF|Rv3003c acetolactate synthase 1 catalytic subunit [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_01491;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:SEA_DAREDEVIL_127;locus_tag=FDIMNEEJ_01491;product=toxin</t>
+  </si>
+  <si>
+    <t>toxin</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_01550;Name=esxE_2;gene=esxE_2;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:UniProtKB:P9WNH8;locus_tag=FDIMNEEJ_01550;product=ESAT-6-like protein EsxE</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_01611;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|SL1344_0617;locus_tag=FDIMNEEJ_01611;product=Virulent PATRIC_VF|SL1344_0617 cold shock-like protein cspE [Salmonella enterica subsp. enterica serovar Typhimurium str.]</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_01612;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|Rv3649;locus_tag=FDIMNEEJ_01612;product=Virulent PATRIC_VF|Rv3649 helicase [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_01760;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:SEA_MELBA_33;locus_tag=FDIMNEEJ_01760;product=toxin</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_01865;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|Rv3556c;locus_tag=FDIMNEEJ_01865;product=Virulent PATRIC_VF|Rv3556c acetyl-CoA acetyltransferase [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>Virulent PATRIC_VF|Rv3556c acetyl-CoA acetyltransferase [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_01870;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:VFDB|VFG013327;locus_tag=FDIMNEEJ_01870;product=Virulent VFDB|VFG013327 phosphomannomutase [Haemophilus influenzae Rd KW20]</t>
+  </si>
+  <si>
+    <t>Virulent VFDB|VFG013327 phosphomannomutase [Haemophilus influenzae Rd KW20]</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_02236;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|SL1344_0617;locus_tag=FDIMNEEJ_02236;product=Virulent PATRIC_VF|SL1344_0617 cold shock-like protein cspE [Salmonella enterica subsp. enterica serovar Typhimurium str.]</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_02415;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|SL1344_3013;locus_tag=FDIMNEEJ_02415;note=Virulent PATRIC_VF|SL1344_3013 conserved hypothetical protein [Salmonella enterica subsp. enterica serovar Typhimurium str. SL1344];product=hypothetical protein</t>
+  </si>
+  <si>
+    <t>hypothetical protein</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_02549;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:VFDB|VFG021840;locus_tag=FDIMNEEJ_02549;product=Virulent VFDB|VFG021840 Lysine N-acetyltransferase MbtK [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>Virulent VFDB|VFG021840 Lysine N-acetyltransferase MbtK [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_02600;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:SEA_IDENTITYCRISIS_32;locus_tag=FDIMNEEJ_02600;product=HicB-like antitoxin</t>
+  </si>
+  <si>
+    <t>HicB-like antitoxin</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_03079;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|SL1344_0617;locus_tag=FDIMNEEJ_03079;product=Virulent PATRIC_VF|SL1344_0617 cold shock-like protein cspE [Salmonella enterica subsp. enterica serovar Typhimurium str.]</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_03080;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|Rv3649;locus_tag=FDIMNEEJ_03080;product=Virulent PATRIC_VF|Rv3649 helicase [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_03409;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|Rv3849;locus_tag=FDIMNEEJ_03409;product=Virulent PATRIC_VF|Rv3849 hypothetical protein [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>Virulent PATRIC_VF|Rv3849 hypothetical protein [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_03580;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|SL1344_0617;locus_tag=FDIMNEEJ_03580;product=Virulent PATRIC_VF|SL1344_0617 cold shock-like protein cspE [Salmonella enterica subsp. enterica serovar Typhimurium str.]</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_03734;Name=esxE_3;gene=esxE_3;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:UniProtKB:P9WNH8;locus_tag=FDIMNEEJ_03734;product=ESAT-6-like protein EsxE</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_03795;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|SL1344_0617;locus_tag=FDIMNEEJ_03795;product=Virulent PATRIC_VF|SL1344_0617 cold shock-like protein cspE [Salmonella enterica subsp. enterica serovar Typhimurium str.]</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_03863;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|SL1344_0617;locus_tag=FDIMNEEJ_03863;product=Virulent PATRIC_VF|SL1344_0617 cold shock-like protein cspE [Salmonella enterica subsp. enterica serovar Typhimurium str.]</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_03864;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|Rv3649;locus_tag=FDIMNEEJ_03864;product=Virulent PATRIC_VF|Rv3649 helicase [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_03915;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|Rv3556c;locus_tag=FDIMNEEJ_03915;product=Virulent PATRIC_VF|Rv3556c acetyl-CoA acetyltransferase [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_03920;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:VFDB|VFG013327;locus_tag=FDIMNEEJ_03920;product=Virulent VFDB|VFG013327 phosphomannomutase [Haemophilus influenzae Rd KW20]</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_03996;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|Rv3849;locus_tag=FDIMNEEJ_03996;product=Virulent PATRIC_VF|Rv3849 hypothetical protein [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_04004;Name=esxE_4;gene=esxE_4;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:UniProtKB:P9WNH8;locus_tag=FDIMNEEJ_04004;product=ESAT-6-like protein EsxE</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_04209;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|SL1344_3013;locus_tag=FDIMNEEJ_04209;note=Virulent PATRIC_VF|SL1344_3013 conserved hypothetical protein [Salmonella enterica subsp. enterica serovar Typhimurium str. SL1344];product=hypothetical protein</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_04216;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:SEA_MELBA_33;locus_tag=FDIMNEEJ_04216;product=toxin</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_04424;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|SL1344_0617;locus_tag=FDIMNEEJ_04424;product=Virulent PATRIC_VF|SL1344_0617 cold shock-like protein cspE [Salmonella enterica subsp. enterica serovar Typhimurium str.]</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_05434;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|Rv3631;locus_tag=FDIMNEEJ_05434;product=Virulent PATRIC_VF|Rv3631 transferase [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>Virulent PATRIC_VF|Rv3631 transferase [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_05436;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:VFDB|VFG000430;locus_tag=FDIMNEEJ_05436;product=Virulent VFDB|VFG000430 Vi polysaccharide biosynthesis protein%2C epimerase TviC [Salmonella enterica subsp.enterica serovar Typhi str. CT18]</t>
+  </si>
+  <si>
+    <t>Virulent VFDB|VFG000430 Vi polysaccharide biosynthesis protein%2C epimerase TviC [Salmonella enterica subsp.enterica serovar Typhi str. CT18]</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_05444;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|Rv3849;locus_tag=FDIMNEEJ_05444;product=Virulent PATRIC_VF|Rv3849 hypothetical protein [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_05716;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|Rv3003c;locus_tag=FDIMNEEJ_05716;product=Virulent PATRIC_VF|Rv3003c acetolactate synthase 1 catalytic subunit [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_05805;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|Rv3849;locus_tag=FDIMNEEJ_05805;product=Virulent PATRIC_VF|Rv3849 hypothetical protein [Mycobacterium tuberculosis H37Rv]</t>
+  </si>
+  <si>
+    <t>ID=FDIMNEEJ_05892;inference=ab initio prediction:Prodigal:2.6,similar to AA sequence:Combined_VF_Myco.faa:PATRIC_VF|MT1014;locus_tag=FDIMNEEJ_05892;product=Virulent PATRIC_VF|MT1014 ABC transporter%2C ATP-binding protein [Mycobacterium tuberculosis]</t>
+  </si>
+  <si>
+    <t>Virulent PATRIC_VF|MT1014 ABC transporter%2C ATP-binding protein [Mycobacterium tuberculosis]</t>
   </si>
 </sst>
 </file>
@@ -2228,7 +2545,7 @@
   <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2250,19 +2567,19 @@
         <v>421</v>
       </c>
       <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>431</v>
@@ -2288,19 +2605,19 @@
         <v>20</v>
       </c>
       <c r="F2">
+        <v>61731</v>
+      </c>
+      <c r="G2">
         <v>89106</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>433</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>27375</v>
       </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2">
-        <v>61731</v>
+      <c r="J2" t="s">
+        <v>28</v>
       </c>
       <c r="K2" t="s">
         <v>432</v>
@@ -2326,19 +2643,19 @@
         <v>36</v>
       </c>
       <c r="F3">
+        <v>244</v>
+      </c>
+      <c r="G3">
         <v>30007</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>315</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>29763</v>
       </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3">
-        <v>244</v>
+      <c r="J3" t="s">
+        <v>28</v>
       </c>
       <c r="K3" t="s">
         <v>434</v>
@@ -2364,19 +2681,19 @@
         <v>6</v>
       </c>
       <c r="F4">
+        <v>19259</v>
+      </c>
+      <c r="G4">
         <v>61415</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>280</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>42156</v>
       </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4">
-        <v>19259</v>
+      <c r="J4" t="s">
+        <v>28</v>
       </c>
       <c r="K4" t="s">
         <v>278</v>
@@ -2402,19 +2719,19 @@
         <v>17</v>
       </c>
       <c r="F5">
+        <v>19259</v>
+      </c>
+      <c r="G5">
         <v>61415</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>304</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>42156</v>
       </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5">
-        <v>19259</v>
+      <c r="J5" t="s">
+        <v>28</v>
       </c>
       <c r="K5" t="s">
         <v>302</v>
@@ -2440,19 +2757,19 @@
         <v>32</v>
       </c>
       <c r="F6">
+        <v>947</v>
+      </c>
+      <c r="G6">
         <v>16359</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>436</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>15412</v>
       </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6">
-        <v>947</v>
+      <c r="J6" t="s">
+        <v>28</v>
       </c>
       <c r="K6" t="s">
         <v>435</v>
@@ -2478,19 +2795,19 @@
         <v>23</v>
       </c>
       <c r="F7">
+        <v>291</v>
+      </c>
+      <c r="G7">
         <v>16741</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>301</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>16450</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>173</v>
-      </c>
-      <c r="J7">
-        <v>291</v>
       </c>
       <c r="K7" t="s">
         <v>299</v>
@@ -2516,19 +2833,19 @@
         <v>32</v>
       </c>
       <c r="F8">
+        <v>1970</v>
+      </c>
+      <c r="G8">
         <v>16485</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>438</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>14515</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>177</v>
-      </c>
-      <c r="J8">
-        <v>1970</v>
       </c>
       <c r="K8" t="s">
         <v>437</v>
@@ -2554,19 +2871,19 @@
         <v>13</v>
       </c>
       <c r="F9">
+        <v>27037</v>
+      </c>
+      <c r="G9">
         <v>77078</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>251</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>50041</v>
       </c>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9">
-        <v>27037</v>
+      <c r="J9" t="s">
+        <v>28</v>
       </c>
       <c r="K9" t="s">
         <v>249</v>
@@ -2592,19 +2909,19 @@
         <v>14</v>
       </c>
       <c r="F10">
+        <v>27037</v>
+      </c>
+      <c r="G10">
         <v>77078</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>355</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>50041</v>
       </c>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10">
-        <v>27037</v>
+      <c r="J10" t="s">
+        <v>28</v>
       </c>
       <c r="K10" t="s">
         <v>357</v>
@@ -2630,19 +2947,19 @@
         <v>14</v>
       </c>
       <c r="F11">
+        <v>68403</v>
+      </c>
+      <c r="G11">
         <v>119453</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>333</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>51050</v>
       </c>
-      <c r="I11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11">
-        <v>68403</v>
+      <c r="J11" t="s">
+        <v>28</v>
       </c>
       <c r="K11" t="s">
         <v>331</v>
@@ -2668,19 +2985,19 @@
         <v>31</v>
       </c>
       <c r="F12">
+        <v>1617</v>
+      </c>
+      <c r="G12">
         <v>39944</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>325</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>38327</v>
       </c>
-      <c r="I12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12">
-        <v>1617</v>
+      <c r="J12" t="s">
+        <v>28</v>
       </c>
       <c r="K12" t="s">
         <v>427</v>
@@ -2706,19 +3023,19 @@
         <v>7</v>
       </c>
       <c r="F13">
+        <v>69835</v>
+      </c>
+      <c r="G13">
         <v>117899</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>321</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>48064</v>
       </c>
-      <c r="I13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13">
-        <v>69835</v>
+      <c r="J13" t="s">
+        <v>28</v>
       </c>
       <c r="K13" t="s">
         <v>319</v>
@@ -2744,19 +3061,19 @@
         <v>1</v>
       </c>
       <c r="F14">
+        <v>181155</v>
+      </c>
+      <c r="G14">
         <v>255149</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>166</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>73994</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>150</v>
-      </c>
-      <c r="J14">
-        <v>181155</v>
       </c>
       <c r="K14" t="s">
         <v>164</v>
@@ -2782,19 +3099,19 @@
         <v>22</v>
       </c>
       <c r="F15">
+        <v>140</v>
+      </c>
+      <c r="G15">
         <v>39718</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>315</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>39578</v>
       </c>
-      <c r="I15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15">
-        <v>140</v>
+      <c r="J15" t="s">
+        <v>28</v>
       </c>
       <c r="K15" t="s">
         <v>312</v>
@@ -2820,19 +3137,19 @@
         <v>8</v>
       </c>
       <c r="F16">
+        <v>42264</v>
+      </c>
+      <c r="G16">
         <v>96674</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>296</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>54410</v>
       </c>
-      <c r="I16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16">
-        <v>42264</v>
+      <c r="J16" t="s">
+        <v>28</v>
       </c>
       <c r="K16" t="s">
         <v>294</v>
@@ -2858,19 +3175,19 @@
         <v>12</v>
       </c>
       <c r="F17">
+        <v>69878</v>
+      </c>
+      <c r="G17">
         <v>117229</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>329</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>47351</v>
       </c>
-      <c r="I17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17">
-        <v>69878</v>
+      <c r="J17" t="s">
+        <v>28</v>
       </c>
       <c r="K17" t="s">
         <v>327</v>
@@ -2896,19 +3213,19 @@
         <v>2</v>
       </c>
       <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
         <v>18525</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>396</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>18524</v>
       </c>
-      <c r="I18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
+      <c r="J18" t="s">
+        <v>28</v>
       </c>
       <c r="K18" t="s">
         <v>394</v>
@@ -2934,19 +3251,19 @@
         <v>15</v>
       </c>
       <c r="F19">
+        <v>14616</v>
+      </c>
+      <c r="G19">
         <v>54913</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>440</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>40297</v>
       </c>
-      <c r="I19" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19">
-        <v>14616</v>
+      <c r="J19" t="s">
+        <v>28</v>
       </c>
       <c r="K19" t="s">
         <v>439</v>
@@ -2972,19 +3289,19 @@
         <v>28</v>
       </c>
       <c r="F20">
+        <v>14616</v>
+      </c>
+      <c r="G20">
         <v>54913</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>442</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>40297</v>
       </c>
-      <c r="I20" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20">
-        <v>14616</v>
+      <c r="J20" t="s">
+        <v>28</v>
       </c>
       <c r="K20" t="s">
         <v>441</v>
@@ -3010,19 +3327,19 @@
         <v>16</v>
       </c>
       <c r="F21">
+        <v>63319</v>
+      </c>
+      <c r="G21">
         <v>104452</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>428</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>41133</v>
       </c>
-      <c r="I21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21">
-        <v>63319</v>
+      <c r="J21" t="s">
+        <v>28</v>
       </c>
       <c r="K21" t="s">
         <v>429</v>
@@ -3048,19 +3365,19 @@
         <v>4</v>
       </c>
       <c r="F22">
+        <v>104757</v>
+      </c>
+      <c r="G22">
         <v>147250</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>310</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>42493</v>
       </c>
-      <c r="I22" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22">
-        <v>104757</v>
+      <c r="J22" t="s">
+        <v>28</v>
       </c>
       <c r="K22" t="s">
         <v>308</v>
@@ -3083,19 +3400,19 @@
         <v>6</v>
       </c>
       <c r="F23">
+        <v>528197</v>
+      </c>
+      <c r="G23">
         <v>580840</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>36</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>52643</v>
       </c>
-      <c r="I23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J23">
-        <v>528197</v>
+      <c r="J23" t="s">
+        <v>28</v>
       </c>
       <c r="K23" t="s">
         <v>33</v>
@@ -3118,19 +3435,19 @@
         <v>4</v>
       </c>
       <c r="F24">
+        <v>1680815</v>
+      </c>
+      <c r="G24">
         <v>1746709</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>119</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>65894</v>
       </c>
-      <c r="I24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J24">
-        <v>1680815</v>
+      <c r="J24" t="s">
+        <v>28</v>
       </c>
       <c r="K24" t="s">
         <v>117</v>
@@ -3153,19 +3470,19 @@
         <v>5</v>
       </c>
       <c r="F25">
+        <v>3130345</v>
+      </c>
+      <c r="G25">
         <v>3164903</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>130</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>34558</v>
       </c>
-      <c r="I25" t="s">
-        <v>28</v>
-      </c>
-      <c r="J25">
-        <v>3130345</v>
+      <c r="J25" t="s">
+        <v>28</v>
       </c>
       <c r="K25" t="s">
         <v>128</v>
@@ -3191,19 +3508,19 @@
         <v>2</v>
       </c>
       <c r="F26">
+        <v>109301</v>
+      </c>
+      <c r="G26">
         <v>154800</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>368</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>45499</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>177</v>
-      </c>
-      <c r="J26">
-        <v>109301</v>
       </c>
       <c r="K26" t="s">
         <v>366</v>
@@ -3226,19 +3543,19 @@
         <v>5</v>
       </c>
       <c r="F27">
+        <v>3101192</v>
+      </c>
+      <c r="G27">
         <v>3135750</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>126</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>34558</v>
       </c>
-      <c r="I27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J27">
-        <v>3101192</v>
+      <c r="J27" t="s">
+        <v>28</v>
       </c>
       <c r="K27" t="s">
         <v>124</v>
@@ -3261,19 +3578,19 @@
         <v>5</v>
       </c>
       <c r="F28">
+        <v>3445614</v>
+      </c>
+      <c r="G28">
         <v>3524876</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>138</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>79262</v>
       </c>
-      <c r="I28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J28">
-        <v>3445614</v>
+      <c r="J28" t="s">
+        <v>28</v>
       </c>
       <c r="K28" t="s">
         <v>136</v>
@@ -3299,19 +3616,19 @@
         <v>20</v>
       </c>
       <c r="F29">
+        <v>63167</v>
+      </c>
+      <c r="G29">
         <v>88470</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>396</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>25303</v>
       </c>
-      <c r="I29" t="s">
-        <v>28</v>
-      </c>
-      <c r="J29">
-        <v>63167</v>
+      <c r="J29" t="s">
+        <v>28</v>
       </c>
       <c r="K29" t="s">
         <v>430</v>
@@ -3334,19 +3651,19 @@
         <v>5</v>
       </c>
       <c r="F30">
+        <v>3513605</v>
+      </c>
+      <c r="G30">
         <v>3574325</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>105</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>60720</v>
       </c>
-      <c r="I30" t="s">
-        <v>28</v>
-      </c>
-      <c r="J30">
-        <v>3513605</v>
+      <c r="J30" t="s">
+        <v>28</v>
       </c>
       <c r="K30" t="s">
         <v>103</v>
@@ -3369,19 +3686,19 @@
         <v>5</v>
       </c>
       <c r="F31">
+        <v>3316872</v>
+      </c>
+      <c r="G31">
         <v>3377592</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>45</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>60720</v>
       </c>
-      <c r="I31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J31">
-        <v>3316872</v>
+      <c r="J31" t="s">
+        <v>28</v>
       </c>
       <c r="K31" t="s">
         <v>42</v>
@@ -3404,19 +3721,19 @@
         <v>5</v>
       </c>
       <c r="F32">
+        <v>3513867</v>
+      </c>
+      <c r="G32">
         <v>3574587</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>88</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>60720</v>
       </c>
-      <c r="I32" t="s">
-        <v>28</v>
-      </c>
-      <c r="J32">
-        <v>3513867</v>
+      <c r="J32" t="s">
+        <v>28</v>
       </c>
       <c r="K32" t="s">
         <v>86</v>
@@ -3442,19 +3759,19 @@
         <v>2</v>
       </c>
       <c r="F33">
+        <v>33145</v>
+      </c>
+      <c r="G33">
         <v>93383</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>396</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>60238</v>
       </c>
-      <c r="I33" t="s">
-        <v>28</v>
-      </c>
-      <c r="J33">
-        <v>33145</v>
+      <c r="J33" t="s">
+        <v>28</v>
       </c>
       <c r="K33" t="s">
         <v>399</v>
@@ -3477,19 +3794,19 @@
         <v>5</v>
       </c>
       <c r="F34">
+        <v>500725</v>
+      </c>
+      <c r="G34">
         <v>554213</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>97</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>53488</v>
       </c>
-      <c r="I34" t="s">
-        <v>28</v>
-      </c>
-      <c r="J34">
-        <v>500725</v>
+      <c r="J34" t="s">
+        <v>28</v>
       </c>
       <c r="K34" t="s">
         <v>94</v>
@@ -3512,19 +3829,19 @@
         <v>5</v>
       </c>
       <c r="F35">
+        <v>500725</v>
+      </c>
+      <c r="G35">
         <v>554213</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>110</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>53488</v>
       </c>
-      <c r="I35" t="s">
-        <v>28</v>
-      </c>
-      <c r="J35">
-        <v>500725</v>
+      <c r="J35" t="s">
+        <v>28</v>
       </c>
       <c r="K35" t="s">
         <v>108</v>
@@ -3550,19 +3867,19 @@
         <v>14</v>
       </c>
       <c r="F36">
+        <v>12532</v>
+      </c>
+      <c r="G36">
         <v>65381</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>209</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>52849</v>
       </c>
-      <c r="I36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J36">
-        <v>12532</v>
+      <c r="J36" t="s">
+        <v>28</v>
       </c>
       <c r="K36" t="s">
         <v>207</v>
@@ -3588,19 +3905,19 @@
         <v>30</v>
       </c>
       <c r="F37">
+        <v>12875</v>
+      </c>
+      <c r="G37">
         <v>52853</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>172</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>39978</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>173</v>
-      </c>
-      <c r="J37">
-        <v>12875</v>
       </c>
       <c r="K37" t="s">
         <v>169</v>
@@ -3626,19 +3943,19 @@
         <v>22</v>
       </c>
       <c r="F38">
+        <v>64198</v>
+      </c>
+      <c r="G38">
         <v>107112</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>345</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>42914</v>
       </c>
-      <c r="I38" t="s">
-        <v>28</v>
-      </c>
-      <c r="J38">
-        <v>64198</v>
+      <c r="J38" t="s">
+        <v>28</v>
       </c>
       <c r="K38" t="s">
         <v>343</v>
@@ -3664,19 +3981,19 @@
         <v>35</v>
       </c>
       <c r="F39">
+        <v>1507</v>
+      </c>
+      <c r="G39">
         <v>35799</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>228</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>34292</v>
       </c>
-      <c r="I39" t="s">
-        <v>28</v>
-      </c>
-      <c r="J39">
-        <v>1507</v>
+      <c r="J39" t="s">
+        <v>28</v>
       </c>
       <c r="K39" t="s">
         <v>226</v>
@@ -3702,19 +4019,19 @@
         <v>36</v>
       </c>
       <c r="F40">
+        <v>1506</v>
+      </c>
+      <c r="G40">
         <v>35798</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>349</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>34292</v>
       </c>
-      <c r="I40" t="s">
-        <v>28</v>
-      </c>
-      <c r="J40">
-        <v>1506</v>
+      <c r="J40" t="s">
+        <v>28</v>
       </c>
       <c r="K40" t="s">
         <v>351</v>
@@ -3737,19 +4054,19 @@
         <v>4</v>
       </c>
       <c r="F41">
+        <v>1763127</v>
+      </c>
+      <c r="G41">
         <v>1820360</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>84</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>57233</v>
       </c>
-      <c r="I41" t="s">
-        <v>28</v>
-      </c>
-      <c r="J41">
-        <v>1763127</v>
+      <c r="J41" t="s">
+        <v>28</v>
       </c>
       <c r="K41" t="s">
         <v>82</v>
@@ -3775,19 +4092,19 @@
         <v>18</v>
       </c>
       <c r="F42">
+        <v>64206</v>
+      </c>
+      <c r="G42">
         <v>107120</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>318</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>42914</v>
       </c>
-      <c r="I42" t="s">
-        <v>28</v>
-      </c>
-      <c r="J42">
-        <v>64206</v>
+      <c r="J42" t="s">
+        <v>28</v>
       </c>
       <c r="K42" t="s">
         <v>316</v>
@@ -3810,19 +4127,19 @@
         <v>4</v>
       </c>
       <c r="F43">
+        <v>1767448</v>
+      </c>
+      <c r="G43">
         <v>1832447</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>134</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>64999</v>
       </c>
-      <c r="I43" t="s">
-        <v>28</v>
-      </c>
-      <c r="J43">
-        <v>1767448</v>
+      <c r="J43" t="s">
+        <v>28</v>
       </c>
       <c r="K43" t="s">
         <v>132</v>
@@ -3848,19 +4165,19 @@
         <v>18</v>
       </c>
       <c r="F44">
+        <v>49</v>
+      </c>
+      <c r="G44">
         <v>42951</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>283</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>42902</v>
       </c>
-      <c r="I44" t="s">
-        <v>28</v>
-      </c>
-      <c r="J44">
-        <v>49</v>
+      <c r="J44" t="s">
+        <v>28</v>
       </c>
       <c r="K44" t="s">
         <v>281</v>
@@ -3886,19 +4203,19 @@
         <v>19</v>
       </c>
       <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
         <v>42916</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>307</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>42914</v>
       </c>
-      <c r="I45" t="s">
-        <v>28</v>
-      </c>
-      <c r="J45">
-        <v>2</v>
+      <c r="J45" t="s">
+        <v>28</v>
       </c>
       <c r="K45" t="s">
         <v>305</v>
@@ -3924,19 +4241,19 @@
         <v>19</v>
       </c>
       <c r="F46">
+        <v>64200</v>
+      </c>
+      <c r="G46">
         <v>107114</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>290</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>42914</v>
       </c>
-      <c r="I46" t="s">
-        <v>28</v>
-      </c>
-      <c r="J46">
-        <v>64200</v>
+      <c r="J46" t="s">
+        <v>28</v>
       </c>
       <c r="K46" t="s">
         <v>288</v>
@@ -3959,19 +4276,19 @@
         <v>5</v>
       </c>
       <c r="F47">
+        <v>233916</v>
+      </c>
+      <c r="G47">
         <v>316864</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>53</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>82948</v>
       </c>
-      <c r="I47" t="s">
-        <v>28</v>
-      </c>
-      <c r="J47">
-        <v>233916</v>
+      <c r="J47" t="s">
+        <v>28</v>
       </c>
       <c r="K47" t="s">
         <v>50</v>
@@ -3997,19 +4314,19 @@
         <v>20</v>
       </c>
       <c r="F48">
+        <v>6682</v>
+      </c>
+      <c r="G48">
         <v>82136</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>244</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>75454</v>
       </c>
-      <c r="I48" t="s">
-        <v>28</v>
-      </c>
-      <c r="J48">
-        <v>6682</v>
+      <c r="J48" t="s">
+        <v>28</v>
       </c>
       <c r="K48" t="s">
         <v>246</v>
@@ -4035,19 +4352,19 @@
         <v>13</v>
       </c>
       <c r="F49">
+        <v>31386</v>
+      </c>
+      <c r="G49">
         <v>69328</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>231</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>37942</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>177</v>
-      </c>
-      <c r="J49">
-        <v>31386</v>
       </c>
       <c r="K49" t="s">
         <v>229</v>
@@ -4073,19 +4390,19 @@
         <v>11</v>
       </c>
       <c r="F50">
+        <v>72498</v>
+      </c>
+      <c r="G50">
         <v>126207</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>222</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>53709</v>
       </c>
-      <c r="I50" t="s">
-        <v>28</v>
-      </c>
-      <c r="J50">
-        <v>72498</v>
+      <c r="J50" t="s">
+        <v>28</v>
       </c>
       <c r="K50" t="s">
         <v>220</v>
@@ -4108,19 +4425,19 @@
         <v>4</v>
       </c>
       <c r="F51">
+        <v>867353</v>
+      </c>
+      <c r="G51">
         <v>945803</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>97</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>78450</v>
       </c>
-      <c r="I51" t="s">
-        <v>28</v>
-      </c>
-      <c r="J51">
-        <v>867353</v>
+      <c r="J51" t="s">
+        <v>28</v>
       </c>
       <c r="K51" t="s">
         <v>99</v>
@@ -4143,19 +4460,19 @@
         <v>4</v>
       </c>
       <c r="F52">
+        <v>865067</v>
+      </c>
+      <c r="G52">
         <v>945992</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>110</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>80925</v>
       </c>
-      <c r="I52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J52">
-        <v>865067</v>
+      <c r="J52" t="s">
+        <v>28</v>
       </c>
       <c r="K52" t="s">
         <v>112</v>
@@ -4181,19 +4498,19 @@
         <v>36</v>
       </c>
       <c r="F53">
+        <v>13429</v>
+      </c>
+      <c r="G53">
         <v>39033</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>338</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>25604</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>177</v>
-      </c>
-      <c r="J53">
-        <v>13429</v>
       </c>
       <c r="K53" t="s">
         <v>336</v>
@@ -4219,19 +4536,19 @@
         <v>34</v>
       </c>
       <c r="F54">
+        <v>13429</v>
+      </c>
+      <c r="G54">
         <v>39033</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>231</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>25604</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>177</v>
-      </c>
-      <c r="J54">
-        <v>13429</v>
       </c>
       <c r="K54" t="s">
         <v>233</v>
@@ -4254,19 +4571,19 @@
         <v>5</v>
       </c>
       <c r="F55">
+        <v>239152</v>
+      </c>
+      <c r="G55">
         <v>312410</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>444</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>73258</v>
       </c>
-      <c r="I55" t="s">
-        <v>28</v>
-      </c>
-      <c r="J55">
-        <v>239152</v>
+      <c r="J55" t="s">
+        <v>28</v>
       </c>
       <c r="K55" t="s">
         <v>443</v>
@@ -4292,19 +4609,19 @@
         <v>17</v>
       </c>
       <c r="F56">
+        <v>19755</v>
+      </c>
+      <c r="G56">
         <v>98387</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>244</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>78632</v>
       </c>
-      <c r="I56" t="s">
-        <v>28</v>
-      </c>
-      <c r="J56">
-        <v>19755</v>
+      <c r="J56" t="s">
+        <v>28</v>
       </c>
       <c r="K56" t="s">
         <v>242</v>
@@ -4330,19 +4647,19 @@
         <v>8</v>
       </c>
       <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="G57">
         <v>36301</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>423</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>36298</v>
       </c>
-      <c r="I57" t="s">
-        <v>28</v>
-      </c>
-      <c r="J57">
-        <v>3</v>
+      <c r="J57" t="s">
+        <v>28</v>
       </c>
       <c r="K57" t="s">
         <v>424</v>
@@ -4368,19 +4685,19 @@
         <v>19</v>
       </c>
       <c r="F58">
+        <v>12500</v>
+      </c>
+      <c r="G58">
         <v>71141</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>205</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>58641</v>
       </c>
-      <c r="I58" t="s">
-        <v>28</v>
-      </c>
-      <c r="J58">
-        <v>12500</v>
+      <c r="J58" t="s">
+        <v>28</v>
       </c>
       <c r="K58" t="s">
         <v>203</v>
@@ -4403,19 +4720,19 @@
         <v>5</v>
       </c>
       <c r="F59">
+        <v>231526</v>
+      </c>
+      <c r="G59">
         <v>303917</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>97</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>72391</v>
       </c>
-      <c r="I59" t="s">
-        <v>28</v>
-      </c>
-      <c r="J59">
-        <v>231526</v>
+      <c r="J59" t="s">
+        <v>28</v>
       </c>
       <c r="K59" t="s">
         <v>445</v>
@@ -4438,19 +4755,19 @@
         <v>5</v>
       </c>
       <c r="F60">
+        <v>231526</v>
+      </c>
+      <c r="G60">
         <v>303917</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>110</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>72391</v>
       </c>
-      <c r="I60" t="s">
-        <v>28</v>
-      </c>
-      <c r="J60">
-        <v>231526</v>
+      <c r="J60" t="s">
+        <v>28</v>
       </c>
       <c r="K60" t="s">
         <v>446</v>
@@ -4476,19 +4793,19 @@
         <v>4</v>
       </c>
       <c r="F61">
+        <v>30207</v>
+      </c>
+      <c r="G61">
         <v>68990</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>373</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>38783</v>
       </c>
-      <c r="I61" t="s">
-        <v>28</v>
-      </c>
-      <c r="J61">
-        <v>30207</v>
+      <c r="J61" t="s">
+        <v>28</v>
       </c>
       <c r="K61" t="s">
         <v>371</v>
@@ -4511,19 +4828,19 @@
         <v>4</v>
       </c>
       <c r="F62">
+        <v>2402507</v>
+      </c>
+      <c r="G62">
         <v>2437611</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>448</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>35104</v>
       </c>
-      <c r="I62" t="s">
-        <v>28</v>
-      </c>
-      <c r="J62">
-        <v>2402507</v>
+      <c r="J62" t="s">
+        <v>28</v>
       </c>
       <c r="K62" t="s">
         <v>447</v>
@@ -4549,19 +4866,19 @@
         <v>8</v>
       </c>
       <c r="F63">
+        <v>61138</v>
+      </c>
+      <c r="G63">
         <v>107985</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>450</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>46847</v>
       </c>
-      <c r="I63" t="s">
-        <v>28</v>
-      </c>
-      <c r="J63">
-        <v>61138</v>
+      <c r="J63" t="s">
+        <v>28</v>
       </c>
       <c r="K63" t="s">
         <v>449</v>
@@ -4587,19 +4904,19 @@
         <v>12</v>
       </c>
       <c r="F64">
+        <v>75546</v>
+      </c>
+      <c r="G64">
         <v>125813</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>452</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>50267</v>
       </c>
-      <c r="I64" t="s">
-        <v>28</v>
-      </c>
-      <c r="J64">
-        <v>75546</v>
+      <c r="J64" t="s">
+        <v>28</v>
       </c>
       <c r="K64" t="s">
         <v>451</v>
@@ -4625,19 +4942,19 @@
         <v>6</v>
       </c>
       <c r="F65">
+        <v>110870</v>
+      </c>
+      <c r="G65">
         <v>176977</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>217</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>66107</v>
       </c>
-      <c r="I65" t="s">
-        <v>28</v>
-      </c>
-      <c r="J65">
-        <v>110870</v>
+      <c r="J65" t="s">
+        <v>28</v>
       </c>
       <c r="K65" t="s">
         <v>215</v>
@@ -4660,19 +4977,19 @@
         <v>4</v>
       </c>
       <c r="F66">
+        <v>691746</v>
+      </c>
+      <c r="G66">
         <v>747486</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>60</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>55740</v>
       </c>
-      <c r="I66" t="s">
-        <v>28</v>
-      </c>
-      <c r="J66">
-        <v>691746</v>
+      <c r="J66" t="s">
+        <v>28</v>
       </c>
       <c r="K66" t="s">
         <v>57</v>
@@ -4698,19 +5015,19 @@
         <v>31</v>
       </c>
       <c r="F67">
+        <v>34196</v>
+      </c>
+      <c r="G67">
         <v>70962</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>149</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>36766</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>150</v>
-      </c>
-      <c r="J67">
-        <v>34196</v>
       </c>
       <c r="K67" t="s">
         <v>146</v>
@@ -4736,19 +5053,19 @@
         <v>26</v>
       </c>
       <c r="F68">
+        <v>2289</v>
+      </c>
+      <c r="G68">
         <v>47832</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>256</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>45543</v>
       </c>
-      <c r="I68" t="s">
-        <v>28</v>
-      </c>
-      <c r="J68">
-        <v>2289</v>
+      <c r="J68" t="s">
+        <v>28</v>
       </c>
       <c r="K68" t="s">
         <v>253</v>
@@ -4774,19 +5091,19 @@
         <v>9</v>
       </c>
       <c r="F69">
+        <v>47516</v>
+      </c>
+      <c r="G69">
         <v>125443</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>365</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>77927</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>177</v>
-      </c>
-      <c r="J69">
-        <v>47516</v>
       </c>
       <c r="K69" t="s">
         <v>363</v>
@@ -4812,19 +5129,19 @@
         <v>12</v>
       </c>
       <c r="F70">
+        <v>65990</v>
+      </c>
+      <c r="G70">
         <v>118553</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>355</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>52563</v>
       </c>
-      <c r="I70" t="s">
-        <v>28</v>
-      </c>
-      <c r="J70">
-        <v>65990</v>
+      <c r="J70" t="s">
+        <v>28</v>
       </c>
       <c r="K70" t="s">
         <v>353</v>
@@ -4850,19 +5167,19 @@
         <v>11</v>
       </c>
       <c r="F71">
+        <v>65989</v>
+      </c>
+      <c r="G71">
         <v>118552</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>325</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>52563</v>
       </c>
-      <c r="I71" t="s">
-        <v>28</v>
-      </c>
-      <c r="J71">
-        <v>65989</v>
+      <c r="J71" t="s">
+        <v>28</v>
       </c>
       <c r="K71" t="s">
         <v>323</v>
@@ -4888,19 +5205,19 @@
         <v>2</v>
       </c>
       <c r="F72">
+        <v>260981</v>
+      </c>
+      <c r="G72">
         <v>325351</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>259</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>64370</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>150</v>
-      </c>
-      <c r="J72">
-        <v>260981</v>
       </c>
       <c r="K72" t="s">
         <v>269</v>
@@ -4923,19 +5240,19 @@
         <v>4</v>
       </c>
       <c r="F73">
+        <v>502290</v>
+      </c>
+      <c r="G73">
         <v>565010</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>75</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>62720</v>
       </c>
-      <c r="I73" t="s">
-        <v>28</v>
-      </c>
-      <c r="J73">
-        <v>502290</v>
+      <c r="J73" t="s">
+        <v>28</v>
       </c>
       <c r="K73" t="s">
         <v>72</v>
@@ -4961,19 +5278,19 @@
         <v>13</v>
       </c>
       <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74">
         <v>39872</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>425</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>39870</v>
       </c>
-      <c r="I74" t="s">
-        <v>28</v>
-      </c>
-      <c r="J74">
-        <v>2</v>
+      <c r="J74" t="s">
+        <v>28</v>
       </c>
       <c r="K74" t="s">
         <v>426</v>
@@ -4999,19 +5316,19 @@
         <v>22</v>
       </c>
       <c r="F75">
+        <v>64122</v>
+      </c>
+      <c r="G75">
         <v>81643</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>181</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>17521</v>
       </c>
-      <c r="I75" t="s">
-        <v>28</v>
-      </c>
-      <c r="J75">
-        <v>64122</v>
+      <c r="J75" t="s">
+        <v>28</v>
       </c>
       <c r="K75" t="s">
         <v>178</v>
@@ -5037,19 +5354,19 @@
         <v>3</v>
       </c>
       <c r="F76">
+        <v>87223</v>
+      </c>
+      <c r="G76">
         <v>123014</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>381</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>35791</v>
       </c>
-      <c r="I76" t="s">
-        <v>28</v>
-      </c>
-      <c r="J76">
-        <v>87223</v>
+      <c r="J76" t="s">
+        <v>28</v>
       </c>
       <c r="K76" t="s">
         <v>379</v>
@@ -5072,19 +5389,19 @@
         <v>4</v>
       </c>
       <c r="F77">
+        <v>1816166</v>
+      </c>
+      <c r="G77">
         <v>1878188</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>27</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>62022</v>
       </c>
-      <c r="I77" t="s">
-        <v>28</v>
-      </c>
-      <c r="J77">
-        <v>1816166</v>
+      <c r="J77" t="s">
+        <v>28</v>
       </c>
       <c r="K77" t="s">
         <v>24</v>
@@ -5110,19 +5427,19 @@
         <v>1</v>
       </c>
       <c r="F78">
+        <v>310295</v>
+      </c>
+      <c r="G78">
         <v>372222</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>200</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>61927</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>177</v>
-      </c>
-      <c r="J78">
-        <v>310295</v>
       </c>
       <c r="K78" t="s">
         <v>198</v>
@@ -5145,19 +5462,19 @@
         <v>4</v>
       </c>
       <c r="F79">
+        <v>1152464</v>
+      </c>
+      <c r="G79">
         <v>1199499</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>93</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>47035</v>
       </c>
-      <c r="I79" t="s">
-        <v>28</v>
-      </c>
-      <c r="J79">
-        <v>1152464</v>
+      <c r="J79" t="s">
+        <v>28</v>
       </c>
       <c r="K79" t="s">
         <v>91</v>
@@ -5183,19 +5500,19 @@
         <v>10</v>
       </c>
       <c r="F80">
+        <v>72</v>
+      </c>
+      <c r="G80">
         <v>31029</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>176</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>30957</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>177</v>
-      </c>
-      <c r="J80">
-        <v>72</v>
       </c>
       <c r="K80" t="s">
         <v>174</v>
@@ -5221,19 +5538,19 @@
         <v>17</v>
       </c>
       <c r="F81">
+        <v>59</v>
+      </c>
+      <c r="G81">
         <v>48320</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>213</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>48261</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>177</v>
-      </c>
-      <c r="J81">
-        <v>59</v>
       </c>
       <c r="K81" t="s">
         <v>211</v>
@@ -5259,19 +5576,19 @@
         <v>7</v>
       </c>
       <c r="F82">
+        <v>127874</v>
+      </c>
+      <c r="G82">
         <v>176150</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>286</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>48276</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>177</v>
-      </c>
-      <c r="J82">
-        <v>127874</v>
       </c>
       <c r="K82" t="s">
         <v>284</v>
@@ -5297,19 +5614,19 @@
         <v>14</v>
       </c>
       <c r="F83">
+        <v>67</v>
+      </c>
+      <c r="G83">
         <v>48328</v>
       </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>377</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>48261</v>
       </c>
-      <c r="I83" t="s">
+      <c r="J83" t="s">
         <v>177</v>
-      </c>
-      <c r="J83">
-        <v>67</v>
       </c>
       <c r="K83" t="s">
         <v>375</v>
@@ -5335,19 +5652,19 @@
         <v>14</v>
       </c>
       <c r="F84">
+        <v>52</v>
+      </c>
+      <c r="G84">
         <v>48313</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>388</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>48261</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>177</v>
-      </c>
-      <c r="J84">
-        <v>52</v>
       </c>
       <c r="K84" t="s">
         <v>386</v>
@@ -5373,19 +5690,19 @@
         <v>8</v>
       </c>
       <c r="F85">
+        <v>4442</v>
+      </c>
+      <c r="G85">
         <v>64809</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>143</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>60367</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>144</v>
-      </c>
-      <c r="J85">
-        <v>4442</v>
       </c>
       <c r="K85" t="s">
         <v>140</v>
@@ -5411,19 +5728,19 @@
         <v>20</v>
       </c>
       <c r="F86">
+        <v>64194</v>
+      </c>
+      <c r="G86">
         <v>107067</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>197</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>42873</v>
       </c>
-      <c r="I86" t="s">
-        <v>28</v>
-      </c>
-      <c r="J86">
-        <v>64194</v>
+      <c r="J86" t="s">
+        <v>28</v>
       </c>
       <c r="K86" t="s">
         <v>195</v>
@@ -5449,19 +5766,19 @@
         <v>4</v>
       </c>
       <c r="F87">
+        <v>231149</v>
+      </c>
+      <c r="G87">
         <v>279329</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>349</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>48180</v>
       </c>
-      <c r="I87" t="s">
-        <v>28</v>
-      </c>
-      <c r="J87">
-        <v>231149</v>
+      <c r="J87" t="s">
+        <v>28</v>
       </c>
       <c r="K87" t="s">
         <v>346</v>
@@ -5487,19 +5804,19 @@
         <v>2</v>
       </c>
       <c r="F88">
+        <v>1109</v>
+      </c>
+      <c r="G88">
         <v>47071</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>228</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>45962</v>
       </c>
-      <c r="I88" t="s">
-        <v>28</v>
-      </c>
-      <c r="J88">
-        <v>1109</v>
+      <c r="J88" t="s">
+        <v>28</v>
       </c>
       <c r="K88" t="s">
         <v>453</v>
@@ -5525,19 +5842,19 @@
         <v>16</v>
       </c>
       <c r="F89">
+        <v>64181</v>
+      </c>
+      <c r="G89">
         <v>107070</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>362</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>42889</v>
       </c>
-      <c r="I89" t="s">
-        <v>28</v>
-      </c>
-      <c r="J89">
-        <v>64181</v>
+      <c r="J89" t="s">
+        <v>28</v>
       </c>
       <c r="K89" t="s">
         <v>360</v>
@@ -5563,19 +5880,19 @@
         <v>20</v>
       </c>
       <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
         <v>56424</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>181</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>56423</v>
       </c>
-      <c r="I90" t="s">
-        <v>28</v>
-      </c>
-      <c r="J90">
-        <v>1</v>
+      <c r="J90" t="s">
+        <v>28</v>
       </c>
       <c r="K90" t="s">
         <v>422</v>
@@ -5601,19 +5918,19 @@
         <v>2</v>
       </c>
       <c r="F91">
+        <v>178783</v>
+      </c>
+      <c r="G91">
         <v>235835</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>259</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>57052</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>150</v>
-      </c>
-      <c r="J91">
-        <v>178783</v>
       </c>
       <c r="K91" t="s">
         <v>257</v>
@@ -5639,19 +5956,19 @@
         <v>25</v>
       </c>
       <c r="F92">
+        <v>12275</v>
+      </c>
+      <c r="G92">
         <v>30306</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>293</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>18031</v>
       </c>
-      <c r="I92" t="s">
-        <v>28</v>
-      </c>
-      <c r="J92">
-        <v>12275</v>
+      <c r="J92" t="s">
+        <v>28</v>
       </c>
       <c r="K92" t="s">
         <v>291</v>
@@ -5677,19 +5994,19 @@
         <v>30</v>
       </c>
       <c r="F93">
+        <v>17791</v>
+      </c>
+      <c r="G93">
         <v>56777</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>393</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>38986</v>
       </c>
-      <c r="I93" t="s">
+      <c r="J93" t="s">
         <v>16</v>
-      </c>
-      <c r="J93">
-        <v>17791</v>
       </c>
       <c r="K93" t="s">
         <v>390</v>
@@ -5712,19 +6029,19 @@
         <v>4</v>
       </c>
       <c r="F94">
+        <v>746705</v>
+      </c>
+      <c r="G94">
         <v>805156</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>15</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>58451</v>
       </c>
-      <c r="I94" t="s">
+      <c r="J94" t="s">
         <v>16</v>
-      </c>
-      <c r="J94">
-        <v>746705</v>
       </c>
       <c r="K94" t="s">
         <v>11</v>
@@ -5750,19 +6067,19 @@
         <v>30</v>
       </c>
       <c r="F95">
+        <v>1477</v>
+      </c>
+      <c r="G95">
         <v>27922</v>
       </c>
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>406</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>26445</v>
       </c>
-      <c r="I95" t="s">
-        <v>28</v>
-      </c>
-      <c r="J95">
-        <v>1477</v>
+      <c r="J95" t="s">
+        <v>28</v>
       </c>
       <c r="K95" t="s">
         <v>403</v>
@@ -5788,19 +6105,19 @@
         <v>21</v>
       </c>
       <c r="F96">
+        <v>56449</v>
+      </c>
+      <c r="G96">
         <v>89354</v>
       </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>385</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>32905</v>
       </c>
-      <c r="I96" t="s">
+      <c r="J96" t="s">
         <v>173</v>
-      </c>
-      <c r="J96">
-        <v>56449</v>
       </c>
       <c r="K96" t="s">
         <v>383</v>
@@ -5826,19 +6143,19 @@
         <v>4</v>
       </c>
       <c r="F97">
+        <v>189404</v>
+      </c>
+      <c r="G97">
         <v>215826</v>
       </c>
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>185</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>26422</v>
       </c>
-      <c r="I97" t="s">
-        <v>28</v>
-      </c>
-      <c r="J97">
-        <v>189404</v>
+      <c r="J97" t="s">
+        <v>28</v>
       </c>
       <c r="K97" t="s">
         <v>182</v>
@@ -6427,7 +6744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -12744,6 +13061,2772 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877C819C-5093-2C42-8F02-18E57FEF07CC}">
+  <dimension ref="A1:M67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>415</v>
+      </c>
+      <c r="M1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>48217</v>
+      </c>
+      <c r="C2">
+        <v>49056</v>
+      </c>
+      <c r="D2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E2" t="s">
+        <v>463</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>839</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>52276</v>
+      </c>
+      <c r="C3">
+        <v>52479</v>
+      </c>
+      <c r="D3" t="s">
+        <v>464</v>
+      </c>
+      <c r="E3" t="s">
+        <v>465</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>203</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>54224</v>
+      </c>
+      <c r="C4">
+        <v>55048</v>
+      </c>
+      <c r="D4" t="s">
+        <v>466</v>
+      </c>
+      <c r="E4" t="s">
+        <v>467</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>824</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>3618</v>
+      </c>
+      <c r="C5">
+        <v>5927</v>
+      </c>
+      <c r="D5" t="s">
+        <v>468</v>
+      </c>
+      <c r="E5" t="s">
+        <v>469</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5">
+        <v>2309</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>6269</v>
+      </c>
+      <c r="C6">
+        <v>6472</v>
+      </c>
+      <c r="D6" t="s">
+        <v>470</v>
+      </c>
+      <c r="E6" t="s">
+        <v>465</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6">
+        <v>203</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>279</v>
+      </c>
+      <c r="D7" t="s">
+        <v>471</v>
+      </c>
+      <c r="E7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7">
+        <v>278</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8">
+        <v>764</v>
+      </c>
+      <c r="C8">
+        <v>2407</v>
+      </c>
+      <c r="D8" t="s">
+        <v>473</v>
+      </c>
+      <c r="E8" t="s">
+        <v>474</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8">
+        <v>1643</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>3248</v>
+      </c>
+      <c r="C9">
+        <v>4291</v>
+      </c>
+      <c r="D9" t="s">
+        <v>475</v>
+      </c>
+      <c r="E9" t="s">
+        <v>476</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9">
+        <v>1043</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>31448</v>
+      </c>
+      <c r="C10">
+        <v>31696</v>
+      </c>
+      <c r="D10" t="s">
+        <v>477</v>
+      </c>
+      <c r="E10" t="s">
+        <v>478</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10">
+        <v>248</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11">
+        <v>13354</v>
+      </c>
+      <c r="C11">
+        <v>13653</v>
+      </c>
+      <c r="D11" t="s">
+        <v>479</v>
+      </c>
+      <c r="E11" t="s">
+        <v>480</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11">
+        <v>299</v>
+      </c>
+      <c r="J11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12">
+        <v>741</v>
+      </c>
+      <c r="C12">
+        <v>1202</v>
+      </c>
+      <c r="D12" t="s">
+        <v>481</v>
+      </c>
+      <c r="E12" t="s">
+        <v>482</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12">
+        <v>461</v>
+      </c>
+      <c r="J12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13">
+        <v>1199</v>
+      </c>
+      <c r="C13">
+        <v>4141</v>
+      </c>
+      <c r="D13" t="s">
+        <v>483</v>
+      </c>
+      <c r="E13" t="s">
+        <v>484</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13">
+        <v>2942</v>
+      </c>
+      <c r="J13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14">
+        <v>8188</v>
+      </c>
+      <c r="C14">
+        <v>10497</v>
+      </c>
+      <c r="D14" t="s">
+        <v>485</v>
+      </c>
+      <c r="E14" t="s">
+        <v>469</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14">
+        <v>2309</v>
+      </c>
+      <c r="J14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15">
+        <v>10839</v>
+      </c>
+      <c r="C15">
+        <v>11042</v>
+      </c>
+      <c r="D15" t="s">
+        <v>486</v>
+      </c>
+      <c r="E15" t="s">
+        <v>465</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15">
+        <v>203</v>
+      </c>
+      <c r="J15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>279</v>
+      </c>
+      <c r="D16" t="s">
+        <v>487</v>
+      </c>
+      <c r="E16" t="s">
+        <v>472</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16">
+        <v>278</v>
+      </c>
+      <c r="J16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17">
+        <v>764</v>
+      </c>
+      <c r="C17">
+        <v>2407</v>
+      </c>
+      <c r="D17" t="s">
+        <v>488</v>
+      </c>
+      <c r="E17" t="s">
+        <v>474</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17">
+        <v>1643</v>
+      </c>
+      <c r="J17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>443</v>
+      </c>
+      <c r="B18">
+        <v>24037</v>
+      </c>
+      <c r="C18">
+        <v>24288</v>
+      </c>
+      <c r="D18" t="s">
+        <v>489</v>
+      </c>
+      <c r="E18" t="s">
+        <v>478</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>444</v>
+      </c>
+      <c r="I18">
+        <v>251</v>
+      </c>
+      <c r="J18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19">
+        <v>372</v>
+      </c>
+      <c r="C19">
+        <v>632</v>
+      </c>
+      <c r="D19" t="s">
+        <v>490</v>
+      </c>
+      <c r="E19" t="s">
+        <v>491</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19">
+        <v>260</v>
+      </c>
+      <c r="J19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>445</v>
+      </c>
+      <c r="B20">
+        <v>23174</v>
+      </c>
+      <c r="C20">
+        <v>23425</v>
+      </c>
+      <c r="D20" t="s">
+        <v>492</v>
+      </c>
+      <c r="E20" t="s">
+        <v>478</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>97</v>
+      </c>
+      <c r="I20">
+        <v>251</v>
+      </c>
+      <c r="J20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" t="s">
+        <v>54</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>279</v>
+      </c>
+      <c r="D21" t="s">
+        <v>493</v>
+      </c>
+      <c r="E21" t="s">
+        <v>472</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I21">
+        <v>278</v>
+      </c>
+      <c r="J21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22">
+        <v>764</v>
+      </c>
+      <c r="C22">
+        <v>2407</v>
+      </c>
+      <c r="D22" t="s">
+        <v>494</v>
+      </c>
+      <c r="E22" t="s">
+        <v>474</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22">
+        <v>1643</v>
+      </c>
+      <c r="J22" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>446</v>
+      </c>
+      <c r="B23">
+        <v>23174</v>
+      </c>
+      <c r="C23">
+        <v>23425</v>
+      </c>
+      <c r="D23" t="s">
+        <v>495</v>
+      </c>
+      <c r="E23" t="s">
+        <v>478</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23">
+        <v>251</v>
+      </c>
+      <c r="J23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" t="s">
+        <v>54</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24">
+        <v>4310</v>
+      </c>
+      <c r="C24">
+        <v>5515</v>
+      </c>
+      <c r="D24" t="s">
+        <v>496</v>
+      </c>
+      <c r="E24" t="s">
+        <v>497</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24" t="s">
+        <v>149</v>
+      </c>
+      <c r="I24">
+        <v>1205</v>
+      </c>
+      <c r="J24" t="s">
+        <v>150</v>
+      </c>
+      <c r="K24" t="s">
+        <v>85</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B25">
+        <v>60794</v>
+      </c>
+      <c r="C25">
+        <v>62032</v>
+      </c>
+      <c r="D25" t="s">
+        <v>498</v>
+      </c>
+      <c r="E25" t="s">
+        <v>499</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25" t="s">
+        <v>166</v>
+      </c>
+      <c r="I25">
+        <v>1238</v>
+      </c>
+      <c r="J25" t="s">
+        <v>150</v>
+      </c>
+      <c r="K25" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26">
+        <v>62228</v>
+      </c>
+      <c r="C26">
+        <v>64594</v>
+      </c>
+      <c r="D26" t="s">
+        <v>500</v>
+      </c>
+      <c r="E26" t="s">
+        <v>501</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26" t="s">
+        <v>166</v>
+      </c>
+      <c r="I26">
+        <v>2366</v>
+      </c>
+      <c r="J26" t="s">
+        <v>150</v>
+      </c>
+      <c r="K26" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>164</v>
+      </c>
+      <c r="B27">
+        <v>65716</v>
+      </c>
+      <c r="C27">
+        <v>66927</v>
+      </c>
+      <c r="D27" t="s">
+        <v>502</v>
+      </c>
+      <c r="E27" t="s">
+        <v>503</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27" t="s">
+        <v>166</v>
+      </c>
+      <c r="I27">
+        <v>1211</v>
+      </c>
+      <c r="J27" t="s">
+        <v>150</v>
+      </c>
+      <c r="K27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>422</v>
+      </c>
+      <c r="B28">
+        <v>55712</v>
+      </c>
+      <c r="C28">
+        <v>56002</v>
+      </c>
+      <c r="D28" t="s">
+        <v>504</v>
+      </c>
+      <c r="E28" t="s">
+        <v>480</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28" t="s">
+        <v>181</v>
+      </c>
+      <c r="I28">
+        <v>290</v>
+      </c>
+      <c r="J28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" t="s">
+        <v>223</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>663</v>
+      </c>
+      <c r="D29" t="s">
+        <v>505</v>
+      </c>
+      <c r="E29" t="s">
+        <v>506</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+      <c r="H29" t="s">
+        <v>185</v>
+      </c>
+      <c r="I29">
+        <v>653</v>
+      </c>
+      <c r="J29" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30">
+        <v>696</v>
+      </c>
+      <c r="C30">
+        <v>2231</v>
+      </c>
+      <c r="D30" t="s">
+        <v>507</v>
+      </c>
+      <c r="E30" t="s">
+        <v>508</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30">
+        <v>6</v>
+      </c>
+      <c r="H30" t="s">
+        <v>185</v>
+      </c>
+      <c r="I30">
+        <v>1535</v>
+      </c>
+      <c r="J30" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" t="s">
+        <v>10</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>182</v>
+      </c>
+      <c r="B31">
+        <v>2273</v>
+      </c>
+      <c r="C31">
+        <v>3586</v>
+      </c>
+      <c r="D31" t="s">
+        <v>509</v>
+      </c>
+      <c r="E31" t="s">
+        <v>510</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31">
+        <v>6</v>
+      </c>
+      <c r="H31" t="s">
+        <v>185</v>
+      </c>
+      <c r="I31">
+        <v>1313</v>
+      </c>
+      <c r="J31" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>182</v>
+      </c>
+      <c r="B32">
+        <v>6882</v>
+      </c>
+      <c r="C32">
+        <v>7556</v>
+      </c>
+      <c r="D32" t="s">
+        <v>511</v>
+      </c>
+      <c r="E32" t="s">
+        <v>512</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32">
+        <v>6</v>
+      </c>
+      <c r="H32" t="s">
+        <v>185</v>
+      </c>
+      <c r="I32">
+        <v>674</v>
+      </c>
+      <c r="J32" t="s">
+        <v>28</v>
+      </c>
+      <c r="K32" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>182</v>
+      </c>
+      <c r="B33">
+        <v>8675</v>
+      </c>
+      <c r="C33">
+        <v>9604</v>
+      </c>
+      <c r="D33" t="s">
+        <v>513</v>
+      </c>
+      <c r="E33" t="s">
+        <v>514</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33">
+        <v>6</v>
+      </c>
+      <c r="H33" t="s">
+        <v>185</v>
+      </c>
+      <c r="I33">
+        <v>929</v>
+      </c>
+      <c r="J33" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34">
+        <v>7071</v>
+      </c>
+      <c r="C34">
+        <v>7331</v>
+      </c>
+      <c r="D34" t="s">
+        <v>515</v>
+      </c>
+      <c r="E34" t="s">
+        <v>491</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34" t="s">
+        <v>200</v>
+      </c>
+      <c r="I34">
+        <v>260</v>
+      </c>
+      <c r="J34" t="s">
+        <v>177</v>
+      </c>
+      <c r="K34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>203</v>
+      </c>
+      <c r="B35">
+        <v>56143</v>
+      </c>
+      <c r="C35">
+        <v>57786</v>
+      </c>
+      <c r="D35" t="s">
+        <v>516</v>
+      </c>
+      <c r="E35" t="s">
+        <v>474</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="H35" t="s">
+        <v>205</v>
+      </c>
+      <c r="I35">
+        <v>1643</v>
+      </c>
+      <c r="J35" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" t="s">
+        <v>10</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>215</v>
+      </c>
+      <c r="B36">
+        <v>44383</v>
+      </c>
+      <c r="C36">
+        <v>44664</v>
+      </c>
+      <c r="D36" t="s">
+        <v>517</v>
+      </c>
+      <c r="E36" t="s">
+        <v>518</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36" t="s">
+        <v>217</v>
+      </c>
+      <c r="I36">
+        <v>281</v>
+      </c>
+      <c r="J36" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>220</v>
+      </c>
+      <c r="B37">
+        <v>1237</v>
+      </c>
+      <c r="C37">
+        <v>1536</v>
+      </c>
+      <c r="D37" t="s">
+        <v>519</v>
+      </c>
+      <c r="E37" t="s">
+        <v>480</v>
+      </c>
+      <c r="F37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37">
+        <v>6</v>
+      </c>
+      <c r="H37" t="s">
+        <v>222</v>
+      </c>
+      <c r="I37">
+        <v>299</v>
+      </c>
+      <c r="J37" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" t="s">
+        <v>223</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>220</v>
+      </c>
+      <c r="B38">
+        <v>45778</v>
+      </c>
+      <c r="C38">
+        <v>45981</v>
+      </c>
+      <c r="D38" t="s">
+        <v>520</v>
+      </c>
+      <c r="E38" t="s">
+        <v>465</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38">
+        <v>6</v>
+      </c>
+      <c r="H38" t="s">
+        <v>222</v>
+      </c>
+      <c r="I38">
+        <v>203</v>
+      </c>
+      <c r="J38" t="s">
+        <v>28</v>
+      </c>
+      <c r="K38" t="s">
+        <v>223</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>220</v>
+      </c>
+      <c r="B39">
+        <v>46323</v>
+      </c>
+      <c r="C39">
+        <v>48632</v>
+      </c>
+      <c r="D39" t="s">
+        <v>521</v>
+      </c>
+      <c r="E39" t="s">
+        <v>469</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39">
+        <v>6</v>
+      </c>
+      <c r="H39" t="s">
+        <v>222</v>
+      </c>
+      <c r="I39">
+        <v>2309</v>
+      </c>
+      <c r="J39" t="s">
+        <v>28</v>
+      </c>
+      <c r="K39" t="s">
+        <v>223</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>453</v>
+      </c>
+      <c r="B40">
+        <v>40615</v>
+      </c>
+      <c r="C40">
+        <v>40887</v>
+      </c>
+      <c r="D40" t="s">
+        <v>522</v>
+      </c>
+      <c r="E40" t="s">
+        <v>518</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
+      <c r="H40" t="s">
+        <v>228</v>
+      </c>
+      <c r="I40">
+        <v>272</v>
+      </c>
+      <c r="J40" t="s">
+        <v>28</v>
+      </c>
+      <c r="K40" t="s">
+        <v>223</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>233</v>
+      </c>
+      <c r="B41">
+        <v>2297</v>
+      </c>
+      <c r="C41">
+        <v>3490</v>
+      </c>
+      <c r="D41" t="s">
+        <v>523</v>
+      </c>
+      <c r="E41" t="s">
+        <v>524</v>
+      </c>
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41">
+        <v>6</v>
+      </c>
+      <c r="H41" t="s">
+        <v>231</v>
+      </c>
+      <c r="I41">
+        <v>1193</v>
+      </c>
+      <c r="J41" t="s">
+        <v>177</v>
+      </c>
+      <c r="K41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>233</v>
+      </c>
+      <c r="B42">
+        <v>8717</v>
+      </c>
+      <c r="C42">
+        <v>10348</v>
+      </c>
+      <c r="D42" t="s">
+        <v>525</v>
+      </c>
+      <c r="E42" t="s">
+        <v>526</v>
+      </c>
+      <c r="F42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42">
+        <v>6</v>
+      </c>
+      <c r="H42" t="s">
+        <v>231</v>
+      </c>
+      <c r="I42">
+        <v>1631</v>
+      </c>
+      <c r="J42" t="s">
+        <v>177</v>
+      </c>
+      <c r="K42" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>249</v>
+      </c>
+      <c r="B43">
+        <v>2446</v>
+      </c>
+      <c r="C43">
+        <v>2649</v>
+      </c>
+      <c r="D43" t="s">
+        <v>527</v>
+      </c>
+      <c r="E43" t="s">
+        <v>465</v>
+      </c>
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43">
+        <v>6</v>
+      </c>
+      <c r="H43" t="s">
+        <v>251</v>
+      </c>
+      <c r="I43">
+        <v>203</v>
+      </c>
+      <c r="J43" t="s">
+        <v>28</v>
+      </c>
+      <c r="K43" t="s">
+        <v>37</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>253</v>
+      </c>
+      <c r="B44">
+        <v>42141</v>
+      </c>
+      <c r="C44">
+        <v>42686</v>
+      </c>
+      <c r="D44" t="s">
+        <v>528</v>
+      </c>
+      <c r="E44" t="s">
+        <v>529</v>
+      </c>
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44">
+        <v>4</v>
+      </c>
+      <c r="H44" t="s">
+        <v>256</v>
+      </c>
+      <c r="I44">
+        <v>545</v>
+      </c>
+      <c r="J44" t="s">
+        <v>28</v>
+      </c>
+      <c r="K44" t="s">
+        <v>223</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>257</v>
+      </c>
+      <c r="B45">
+        <v>50344</v>
+      </c>
+      <c r="C45">
+        <v>50961</v>
+      </c>
+      <c r="D45" t="s">
+        <v>530</v>
+      </c>
+      <c r="E45" t="s">
+        <v>531</v>
+      </c>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45">
+        <v>5</v>
+      </c>
+      <c r="H45" t="s">
+        <v>259</v>
+      </c>
+      <c r="I45">
+        <v>617</v>
+      </c>
+      <c r="J45" t="s">
+        <v>150</v>
+      </c>
+      <c r="K45" t="s">
+        <v>10</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>269</v>
+      </c>
+      <c r="B46">
+        <v>35604</v>
+      </c>
+      <c r="C46">
+        <v>35990</v>
+      </c>
+      <c r="D46" t="s">
+        <v>532</v>
+      </c>
+      <c r="E46" t="s">
+        <v>533</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46">
+        <v>5</v>
+      </c>
+      <c r="H46" t="s">
+        <v>259</v>
+      </c>
+      <c r="I46">
+        <v>386</v>
+      </c>
+      <c r="J46" t="s">
+        <v>150</v>
+      </c>
+      <c r="K46" t="s">
+        <v>272</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>294</v>
+      </c>
+      <c r="B47">
+        <v>47637</v>
+      </c>
+      <c r="C47">
+        <v>47840</v>
+      </c>
+      <c r="D47" t="s">
+        <v>534</v>
+      </c>
+      <c r="E47" t="s">
+        <v>465</v>
+      </c>
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47">
+        <v>6</v>
+      </c>
+      <c r="H47" t="s">
+        <v>296</v>
+      </c>
+      <c r="I47">
+        <v>203</v>
+      </c>
+      <c r="J47" t="s">
+        <v>28</v>
+      </c>
+      <c r="K47" t="s">
+        <v>223</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>294</v>
+      </c>
+      <c r="B48">
+        <v>48182</v>
+      </c>
+      <c r="C48">
+        <v>50491</v>
+      </c>
+      <c r="D48" t="s">
+        <v>535</v>
+      </c>
+      <c r="E48" t="s">
+        <v>469</v>
+      </c>
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48">
+        <v>6</v>
+      </c>
+      <c r="H48" t="s">
+        <v>296</v>
+      </c>
+      <c r="I48">
+        <v>2309</v>
+      </c>
+      <c r="J48" t="s">
+        <v>28</v>
+      </c>
+      <c r="K48" t="s">
+        <v>223</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>312</v>
+      </c>
+      <c r="B49">
+        <v>32768</v>
+      </c>
+      <c r="C49">
+        <v>33190</v>
+      </c>
+      <c r="D49" t="s">
+        <v>536</v>
+      </c>
+      <c r="E49" t="s">
+        <v>537</v>
+      </c>
+      <c r="F49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49">
+        <v>6</v>
+      </c>
+      <c r="H49" t="s">
+        <v>315</v>
+      </c>
+      <c r="I49">
+        <v>422</v>
+      </c>
+      <c r="J49" t="s">
+        <v>28</v>
+      </c>
+      <c r="K49" t="s">
+        <v>10</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>319</v>
+      </c>
+      <c r="B50">
+        <v>46464</v>
+      </c>
+      <c r="C50">
+        <v>46667</v>
+      </c>
+      <c r="D50" t="s">
+        <v>538</v>
+      </c>
+      <c r="E50" t="s">
+        <v>465</v>
+      </c>
+      <c r="F50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50">
+        <v>6</v>
+      </c>
+      <c r="H50" t="s">
+        <v>321</v>
+      </c>
+      <c r="I50">
+        <v>203</v>
+      </c>
+      <c r="J50" t="s">
+        <v>28</v>
+      </c>
+      <c r="K50" t="s">
+        <v>223</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>327</v>
+      </c>
+      <c r="B51">
+        <v>1417</v>
+      </c>
+      <c r="C51">
+        <v>1716</v>
+      </c>
+      <c r="D51" t="s">
+        <v>539</v>
+      </c>
+      <c r="E51" t="s">
+        <v>480</v>
+      </c>
+      <c r="F51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51">
+        <v>6</v>
+      </c>
+      <c r="H51" t="s">
+        <v>329</v>
+      </c>
+      <c r="I51">
+        <v>299</v>
+      </c>
+      <c r="J51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K51" t="s">
+        <v>311</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>327</v>
+      </c>
+      <c r="B52">
+        <v>45751</v>
+      </c>
+      <c r="C52">
+        <v>45954</v>
+      </c>
+      <c r="D52" t="s">
+        <v>540</v>
+      </c>
+      <c r="E52" t="s">
+        <v>465</v>
+      </c>
+      <c r="F52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52">
+        <v>6</v>
+      </c>
+      <c r="H52" t="s">
+        <v>329</v>
+      </c>
+      <c r="I52">
+        <v>203</v>
+      </c>
+      <c r="J52" t="s">
+        <v>28</v>
+      </c>
+      <c r="K52" t="s">
+        <v>311</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>331</v>
+      </c>
+      <c r="B53">
+        <v>47394</v>
+      </c>
+      <c r="C53">
+        <v>47597</v>
+      </c>
+      <c r="D53" t="s">
+        <v>541</v>
+      </c>
+      <c r="E53" t="s">
+        <v>465</v>
+      </c>
+      <c r="F53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53">
+        <v>6</v>
+      </c>
+      <c r="H53" t="s">
+        <v>333</v>
+      </c>
+      <c r="I53">
+        <v>203</v>
+      </c>
+      <c r="J53" t="s">
+        <v>28</v>
+      </c>
+      <c r="K53" t="s">
+        <v>223</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>331</v>
+      </c>
+      <c r="B54">
+        <v>47939</v>
+      </c>
+      <c r="C54">
+        <v>50248</v>
+      </c>
+      <c r="D54" t="s">
+        <v>542</v>
+      </c>
+      <c r="E54" t="s">
+        <v>469</v>
+      </c>
+      <c r="F54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54">
+        <v>6</v>
+      </c>
+      <c r="H54" t="s">
+        <v>333</v>
+      </c>
+      <c r="I54">
+        <v>2309</v>
+      </c>
+      <c r="J54" t="s">
+        <v>28</v>
+      </c>
+      <c r="K54" t="s">
+        <v>223</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>336</v>
+      </c>
+      <c r="B55">
+        <v>2297</v>
+      </c>
+      <c r="C55">
+        <v>3490</v>
+      </c>
+      <c r="D55" t="s">
+        <v>543</v>
+      </c>
+      <c r="E55" t="s">
+        <v>524</v>
+      </c>
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55">
+        <v>6</v>
+      </c>
+      <c r="H55" t="s">
+        <v>338</v>
+      </c>
+      <c r="I55">
+        <v>1193</v>
+      </c>
+      <c r="J55" t="s">
+        <v>177</v>
+      </c>
+      <c r="K55" t="s">
+        <v>10</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>336</v>
+      </c>
+      <c r="B56">
+        <v>8717</v>
+      </c>
+      <c r="C56">
+        <v>10348</v>
+      </c>
+      <c r="D56" t="s">
+        <v>544</v>
+      </c>
+      <c r="E56" t="s">
+        <v>526</v>
+      </c>
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56">
+        <v>6</v>
+      </c>
+      <c r="H56" t="s">
+        <v>338</v>
+      </c>
+      <c r="I56">
+        <v>1631</v>
+      </c>
+      <c r="J56" t="s">
+        <v>177</v>
+      </c>
+      <c r="K56" t="s">
+        <v>10</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>429</v>
+      </c>
+      <c r="B57">
+        <v>2284</v>
+      </c>
+      <c r="C57">
+        <v>2706</v>
+      </c>
+      <c r="D57" t="s">
+        <v>545</v>
+      </c>
+      <c r="E57" t="s">
+        <v>537</v>
+      </c>
+      <c r="F57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57">
+        <v>6</v>
+      </c>
+      <c r="H57" t="s">
+        <v>428</v>
+      </c>
+      <c r="I57">
+        <v>422</v>
+      </c>
+      <c r="J57" t="s">
+        <v>28</v>
+      </c>
+      <c r="K57" t="s">
+        <v>10</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>429</v>
+      </c>
+      <c r="B58">
+        <v>7910</v>
+      </c>
+      <c r="C58">
+        <v>8209</v>
+      </c>
+      <c r="D58" t="s">
+        <v>546</v>
+      </c>
+      <c r="E58" t="s">
+        <v>480</v>
+      </c>
+      <c r="F58" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58">
+        <v>6</v>
+      </c>
+      <c r="H58" t="s">
+        <v>428</v>
+      </c>
+      <c r="I58">
+        <v>299</v>
+      </c>
+      <c r="J58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K58" t="s">
+        <v>10</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>346</v>
+      </c>
+      <c r="B59">
+        <v>3590</v>
+      </c>
+      <c r="C59">
+        <v>4417</v>
+      </c>
+      <c r="D59" t="s">
+        <v>547</v>
+      </c>
+      <c r="E59" t="s">
+        <v>529</v>
+      </c>
+      <c r="F59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59">
+        <v>4</v>
+      </c>
+      <c r="H59" t="s">
+        <v>349</v>
+      </c>
+      <c r="I59">
+        <v>827</v>
+      </c>
+      <c r="J59" t="s">
+        <v>28</v>
+      </c>
+      <c r="K59" t="s">
+        <v>223</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>346</v>
+      </c>
+      <c r="B60">
+        <v>10596</v>
+      </c>
+      <c r="C60">
+        <v>10868</v>
+      </c>
+      <c r="D60" t="s">
+        <v>548</v>
+      </c>
+      <c r="E60" t="s">
+        <v>518</v>
+      </c>
+      <c r="F60" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60">
+        <v>4</v>
+      </c>
+      <c r="H60" t="s">
+        <v>349</v>
+      </c>
+      <c r="I60">
+        <v>272</v>
+      </c>
+      <c r="J60" t="s">
+        <v>28</v>
+      </c>
+      <c r="K60" t="s">
+        <v>223</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>357</v>
+      </c>
+      <c r="B61">
+        <v>2446</v>
+      </c>
+      <c r="C61">
+        <v>2649</v>
+      </c>
+      <c r="D61" t="s">
+        <v>549</v>
+      </c>
+      <c r="E61" t="s">
+        <v>465</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61">
+        <v>6</v>
+      </c>
+      <c r="H61" t="s">
+        <v>355</v>
+      </c>
+      <c r="I61">
+        <v>203</v>
+      </c>
+      <c r="J61" t="s">
+        <v>28</v>
+      </c>
+      <c r="K61" t="s">
+        <v>37</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>383</v>
+      </c>
+      <c r="B62">
+        <v>135</v>
+      </c>
+      <c r="C62">
+        <v>911</v>
+      </c>
+      <c r="D62" t="s">
+        <v>550</v>
+      </c>
+      <c r="E62" t="s">
+        <v>551</v>
+      </c>
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62">
+        <v>6</v>
+      </c>
+      <c r="H62" t="s">
+        <v>385</v>
+      </c>
+      <c r="I62">
+        <v>776</v>
+      </c>
+      <c r="J62" t="s">
+        <v>173</v>
+      </c>
+      <c r="K62" t="s">
+        <v>10</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>383</v>
+      </c>
+      <c r="B63">
+        <v>1262</v>
+      </c>
+      <c r="C63">
+        <v>2194</v>
+      </c>
+      <c r="D63" t="s">
+        <v>552</v>
+      </c>
+      <c r="E63" t="s">
+        <v>553</v>
+      </c>
+      <c r="F63" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63">
+        <v>6</v>
+      </c>
+      <c r="H63" t="s">
+        <v>385</v>
+      </c>
+      <c r="I63">
+        <v>932</v>
+      </c>
+      <c r="J63" t="s">
+        <v>173</v>
+      </c>
+      <c r="K63" t="s">
+        <v>10</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>383</v>
+      </c>
+      <c r="B64">
+        <v>9207</v>
+      </c>
+      <c r="C64">
+        <v>9629</v>
+      </c>
+      <c r="D64" t="s">
+        <v>554</v>
+      </c>
+      <c r="E64" t="s">
+        <v>537</v>
+      </c>
+      <c r="F64" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64">
+        <v>6</v>
+      </c>
+      <c r="H64" t="s">
+        <v>385</v>
+      </c>
+      <c r="I64">
+        <v>422</v>
+      </c>
+      <c r="J64" t="s">
+        <v>173</v>
+      </c>
+      <c r="K64" t="s">
+        <v>10</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>399</v>
+      </c>
+      <c r="B65">
+        <v>857</v>
+      </c>
+      <c r="C65">
+        <v>2500</v>
+      </c>
+      <c r="D65" t="s">
+        <v>555</v>
+      </c>
+      <c r="E65" t="s">
+        <v>474</v>
+      </c>
+      <c r="F65" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65">
+        <v>5</v>
+      </c>
+      <c r="H65" t="s">
+        <v>396</v>
+      </c>
+      <c r="I65">
+        <v>1643</v>
+      </c>
+      <c r="J65" t="s">
+        <v>28</v>
+      </c>
+      <c r="K65" t="s">
+        <v>10</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>430</v>
+      </c>
+      <c r="B66">
+        <v>2436</v>
+      </c>
+      <c r="C66">
+        <v>2858</v>
+      </c>
+      <c r="D66" t="s">
+        <v>556</v>
+      </c>
+      <c r="E66" t="s">
+        <v>537</v>
+      </c>
+      <c r="F66" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66">
+        <v>6</v>
+      </c>
+      <c r="H66" t="s">
+        <v>396</v>
+      </c>
+      <c r="I66">
+        <v>422</v>
+      </c>
+      <c r="J66" t="s">
+        <v>28</v>
+      </c>
+      <c r="K66" t="s">
+        <v>223</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>403</v>
+      </c>
+      <c r="B67">
+        <v>7869</v>
+      </c>
+      <c r="C67">
+        <v>8558</v>
+      </c>
+      <c r="D67" t="s">
+        <v>557</v>
+      </c>
+      <c r="E67" t="s">
+        <v>558</v>
+      </c>
+      <c r="F67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67">
+        <v>6</v>
+      </c>
+      <c r="H67" t="s">
+        <v>406</v>
+      </c>
+      <c r="I67">
+        <v>689</v>
+      </c>
+      <c r="J67" t="s">
+        <v>28</v>
+      </c>
+      <c r="K67" t="s">
+        <v>10</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67" t="s">
+        <v>457</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
@@ -13023,4 +16106,79 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F2C8C0-75B3-4040-BE2A-3A34BFBA6393}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>459</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>460</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>